--- a/webroot/files/tg/4066/Curva3G.xlsx
+++ b/webroot/files/tg/4066/Curva3G.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Portal-Web\webroot\files\tg\4066\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martín\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11F993F4-19DE-44D6-AD27-ADDACD905A26}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DFE9E7C-D40F-45E6-A476-7DCA8DA460F8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{83AD37E1-F23D-4B7B-A7EB-672069417472}"/>
+    <workbookView xWindow="28690" yWindow="-110" windowWidth="24220" windowHeight="13120" xr2:uid="{83AD37E1-F23D-4B7B-A7EB-672069417472}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -85,11 +85,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="42" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;_-;_-@_-"/>
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_(&quot;$&quot;\ * #,##0.0_);_(&quot;$&quot;\ * \(#,##0.0\);_(&quot;$&quot;\ * &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -109,14 +108,6 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -127,13 +118,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor theme="9" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="-0.249977111117893"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -147,34 +138,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
-  <cellStyles count="5">
-    <cellStyle name="Moneda [0]" xfId="4" builtinId="7"/>
+  <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 10 10" xfId="3" xr:uid="{9CF14F72-AC19-473D-A706-D5B00878F10D}"/>
     <cellStyle name="Normal 10 2" xfId="1" xr:uid="{97B20810-41D9-4238-AD3D-B99EE0FD512E}"/>
@@ -224,8 +207,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1A9D6A88-774D-4142-A188-BADF21D9E413}" name="Tabla2" displayName="Tabla2" ref="A1:D27" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
-  <autoFilter ref="A1:D27" xr:uid="{33ECFD26-ACE3-46B4-B87C-566ECA1423BD}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1A9D6A88-774D-4142-A188-BADF21D9E413}" name="Tabla2" displayName="Tabla2" ref="A1:D17" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+  <autoFilter ref="A1:D17" xr:uid="{33ECFD26-ACE3-46B4-B87C-566ECA1423BD}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D5">
     <sortCondition ref="D1:D5"/>
   </sortState>
@@ -538,21 +521,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A706ECC9-782B-445F-9E52-4C8FE80A6E9A}">
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="27.140625" customWidth="1"/>
-    <col min="2" max="2" width="25.5703125" customWidth="1"/>
-    <col min="3" max="3" width="24.85546875" customWidth="1"/>
-    <col min="4" max="4" width="26.28515625" customWidth="1"/>
-    <col min="5" max="5" width="28.28515625" customWidth="1"/>
+    <col min="1" max="1" width="27.1796875" customWidth="1"/>
+    <col min="2" max="2" width="25.54296875" customWidth="1"/>
+    <col min="3" max="3" width="24.81640625" customWidth="1"/>
+    <col min="4" max="4" width="26.26953125" customWidth="1"/>
+    <col min="5" max="5" width="28.26953125" customWidth="1"/>
     <col min="6" max="6" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -566,235 +549,255 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
-        <v>8.4801854758368407</v>
+        <v>4.4558158692465106</v>
       </c>
       <c r="B2" s="2">
-        <v>0.107504700726114</v>
+        <v>0.13808544484712099</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2">
         <v>2016</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>8.0267443770616396</v>
-      </c>
-      <c r="B3" s="3">
-        <v>4.1229277244249003</v>
-      </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="2">
+        <v>3.3112042070894709</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.17077846803549299</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4">
         <v>2017</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
-        <v>19.2965611817941</v>
+        <v>4.9417506034471002</v>
       </c>
       <c r="B4" s="2">
-        <v>21.1794993955249</v>
+        <v>1.2034798750190399</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2">
         <v>2018</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <v>0.722710216220254</v>
-      </c>
-      <c r="B5" s="3">
-        <v>5.9510156600684101E-3</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="2">
+        <v>0</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
-        <v>1.8809740918519</v>
-      </c>
-      <c r="B6" s="6">
-        <v>7.37166457012259</v>
-      </c>
-      <c r="C6" s="4"/>
+        <v>0.70553053452135295</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.33761056311759913</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.33761056311759913</v>
+      </c>
       <c r="D6" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
-        <v>4.9467999122544803</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="2"/>
+        <v>1.2388551340207363</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="2">
+        <v>0.8342893492342921</v>
+      </c>
       <c r="D7" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
-        <v>4.5006820790680697</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="2"/>
+        <v>1.789516155618931</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="2">
+        <v>1.3479933488513014</v>
+      </c>
       <c r="D8" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
-        <v>4.6886300792463302</v>
-      </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="2"/>
+        <v>2.2303912537851813</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="2">
+        <v>1.7595460674664121</v>
+      </c>
       <c r="D9" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
-        <v>3.2955896001544902</v>
-      </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="2"/>
+        <v>2.6716028886937333</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="2">
+        <v>2.1710987860815227</v>
+      </c>
       <c r="D10" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
-        <v>4.6738775362750404</v>
-      </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="2"/>
+        <v>3.1134816337113675</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="2">
+        <v>2.5826515046966332</v>
+      </c>
       <c r="D11" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
-        <v>4.8471847987617203</v>
-      </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="2"/>
+        <v>3.6841931627456592</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="2">
+        <v>3.1133807178139592</v>
+      </c>
       <c r="D12" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
-        <v>3.18059292875868</v>
-      </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="2"/>
+        <v>4.506481474612035</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="2">
+        <v>3.877710714584766</v>
+      </c>
       <c r="D13" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
-        <v>2.9848120275558401</v>
-      </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="2"/>
+        <v>4.6446394852025428</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="2">
+        <v>4.4185334993948926</v>
+      </c>
       <c r="D14" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
-        <v>2.23319136392622</v>
-      </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="2"/>
+        <v>5.2280196381818955</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="2">
+        <v>4.8643606541103992</v>
+      </c>
       <c r="D15" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
-        <v>1.27757140159914</v>
-      </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="2"/>
+        <v>5.3507788562056771</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="2">
+        <v>4.9782847047433103</v>
+      </c>
       <c r="D16" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
-        <v>27.616270045952799</v>
-      </c>
-      <c r="B17" s="5"/>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2">
         <v>2020</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
       <c r="C18" s="2"/>
-      <c r="D18" s="2">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5"/>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5"/>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
     </row>
